--- a/service-system/target/classes/static/摩擦系数-2车道.xlsx
+++ b/service-system/target/classes/static/摩擦系数-2车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C2E18-E966-4B65-A000-6F79BA63BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0486F5-4C42-462A-A924-F1A8D95DCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-路面" sheetId="468" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1761,8 +1761,7 @@
   <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1775,7 +1774,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2376,11 +2375,10 @@
     <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.82677165354330717" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2994,11 +2992,10 @@
     <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.82638888888888895" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3612,11 +3609,10 @@
     <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.86597222222222203" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4230,11 +4226,10 @@
     <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.82638888888888895" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4246,8 +4241,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4848,11 +4843,10 @@
     <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.82638888888888895" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
